--- a/R/analysis/data/Pt_03_Experimental.xlsx
+++ b/R/analysis/data/Pt_03_Experimental.xlsx
@@ -524,7 +524,7 @@
         <v>1.53</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.33</v>
+        <v>3.33</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>2.08</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.67</v>
+        <v>4.67</v>
       </c>
       <c r="M3" t="n">
         <v>1.3</v>
@@ -635,16 +635,16 @@
         <v>3.96</v>
       </c>
       <c r="K4" t="n">
-        <v>6.41</v>
+        <v>0.19</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.13</v>
+        <v>4.54</v>
       </c>
       <c r="M4" t="n">
-        <v>3.91</v>
+        <v>0.8</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.56</v>
+        <v>2.77</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>1.41</v>
       </c>
       <c r="N5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>1.97</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
         <v>2.12</v>
@@ -815,16 +815,16 @@
         <v>4.78</v>
       </c>
       <c r="K7" t="n">
-        <v>5.3</v>
+        <v>0.35</v>
       </c>
       <c r="L7" t="n">
-        <v>0.25</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>2.47</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
       </c>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>2.5</v>
       </c>
       <c r="L9" t="n">
-        <v>-4.25</v>
+        <v>4.25</v>
       </c>
       <c r="M9" t="n">
         <v>0.82</v>
@@ -991,16 +991,16 @@
         <v>5.8</v>
       </c>
       <c r="K10" t="n">
-        <v>6.04</v>
+        <v>0.03</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02</v>
+        <v>4.27</v>
       </c>
       <c r="M10" t="n">
-        <v>2.83</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>1.73</v>
       </c>
       <c r="N11" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
         <v>0.35</v>
@@ -1112,7 +1112,7 @@
         <v>2.16</v>
       </c>
       <c r="L12" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="M12"/>
       <c r="N12" t="n">
@@ -1167,16 +1167,16 @@
         <v>3.56</v>
       </c>
       <c r="K13" t="n">
-        <v>5.09</v>
+        <v>1.98</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.4</v>
+        <v>3.6</v>
       </c>
       <c r="M13" t="n">
-        <v>4.24</v>
+        <v>2.83</v>
       </c>
       <c r="N13" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
         <v>0.08</v>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="M14"/>
       <c r="N14" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0.46</v>
@@ -1286,7 +1286,7 @@
         <v>1.68</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.86</v>
+        <v>3.86</v>
       </c>
       <c r="M15"/>
       <c r="N15" t="n">
@@ -1341,16 +1341,16 @@
         <v>3.04</v>
       </c>
       <c r="K16" t="n">
-        <v>5.06</v>
+        <v>0.4</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.28</v>
+        <v>3.58</v>
       </c>
       <c r="M16" t="n">
-        <v>4.24</v>
+        <v>2.83</v>
       </c>
       <c r="N16" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
         <v>0.09</v>
@@ -1412,7 +1412,7 @@
         <v>4.24</v>
       </c>
       <c r="N17" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
         <v>0.46</v>
@@ -1468,7 +1468,7 @@
         <v>1.97</v>
       </c>
       <c r="L18" t="n">
-        <v>-5.5</v>
+        <v>5.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.41</v>
@@ -1525,16 +1525,16 @@
         <v>4.3</v>
       </c>
       <c r="K19" t="n">
-        <v>6.48</v>
+        <v>1.29</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.92</v>
+        <v>4.58</v>
       </c>
       <c r="M19" t="n">
-        <v>4.24</v>
+        <v>1.41</v>
       </c>
       <c r="N19" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
         <v>0.09</v>
@@ -1587,16 +1587,16 @@
         <v>4.49</v>
       </c>
       <c r="K20" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="L20" t="n">
         <v>2.75</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.25</v>
       </c>
       <c r="M20" t="n">
         <v>1.41</v>
       </c>
       <c r="N20" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>2.14</v>
       </c>
       <c r="L21" t="n">
-        <v>-3.83</v>
+        <v>3.83</v>
       </c>
       <c r="M21" t="n">
         <v>0.71</v>
@@ -1707,16 +1707,16 @@
         <v>3.38</v>
       </c>
       <c r="K22" t="n">
-        <v>4.3</v>
+        <v>0.76</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.79</v>
+        <v>3.29</v>
       </c>
       <c r="M22" t="n">
-        <v>3.89</v>
+        <v>0.35</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.25</v>
+        <v>2.75</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>1.92</v>
       </c>
       <c r="L24" t="n">
-        <v>-3.8</v>
+        <v>3.8</v>
       </c>
       <c r="M24" t="n">
         <v>1.53</v>
@@ -1887,16 +1887,16 @@
         <v>5.76</v>
       </c>
       <c r="K25" t="n">
-        <v>4.81</v>
+        <v>0.57</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.4</v>
+        <v>3.4</v>
       </c>
       <c r="M25" t="n">
-        <v>3.06</v>
+        <v>0.23</v>
       </c>
       <c r="N25" t="n">
-        <v>0.17</v>
+        <v>2.16</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1956,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>2.32</v>
       </c>
       <c r="L27" t="n">
-        <v>-4.17</v>
+        <v>4.17</v>
       </c>
       <c r="M27" t="n">
         <v>0.71</v>
@@ -2067,16 +2067,16 @@
         <v>2.08</v>
       </c>
       <c r="K28" t="n">
-        <v>5.21</v>
+        <v>0.69</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.48</v>
+        <v>3.68</v>
       </c>
       <c r="M28" t="n">
-        <v>5.3</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>0.75</v>
+        <v>3.75</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
